--- a/spliced/walkingToRunning/2023-03-30_14-26-17/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-30_14-26-17/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.0419791936874389</v>
+        <v>-1.111309170722961</v>
       </c>
       <c r="D2" t="n">
-        <v>-20.49333000183105</v>
+        <v>-16.8168830871582</v>
       </c>
       <c r="E2" t="n">
-        <v>-13.21517372131348</v>
+        <v>-6.105263710021973</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.073453715869358</v>
+        <v>-0.4303629223038048</v>
       </c>
       <c r="G2" t="n">
-        <v>1.317456359841992</v>
+        <v>-0.01591238554787755</v>
       </c>
       <c r="H2" t="n">
-        <v>1.647602679474009</v>
+        <v>-0.3245061741155765</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-3.297537326812744</v>
+        <v>-0.0419791936874389</v>
       </c>
       <c r="D3" t="n">
-        <v>-12.87430763244629</v>
+        <v>-20.49333000183105</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.910844326019287</v>
+        <v>-13.21517372131348</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.4519367668809059</v>
+        <v>-1.073453715869358</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3554307395169793</v>
+        <v>1.317456359841992</v>
       </c>
       <c r="H3" t="n">
-        <v>2.567409327050211</v>
+        <v>1.647602679474009</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-2.024067401885986</v>
+        <v>-3.297537326812744</v>
       </c>
       <c r="D4" t="n">
-        <v>-10.72560882568359</v>
+        <v>-12.87430763244629</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.07154750823975</v>
+        <v>-6.910844326019287</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.7488680436831516</v>
+        <v>-0.4519367668809059</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1919719578713872</v>
+        <v>0.3554307395169793</v>
       </c>
       <c r="H4" t="n">
-        <v>1.722829146545486</v>
+        <v>2.567409327050211</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.292793273925781</v>
+        <v>-2.024067401885986</v>
       </c>
       <c r="D5" t="n">
-        <v>-12.79408359527588</v>
+        <v>-10.72560882568359</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.549558639526367</v>
+        <v>-10.07154750823975</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3624176147605125</v>
+        <v>-0.7488680436831516</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2589661164694446</v>
+        <v>-0.1919719578713872</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9208506445924814</v>
+        <v>1.722829146545486</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11.05422019958496</v>
+        <v>2.292793273925781</v>
       </c>
       <c r="D6" t="n">
-        <v>-10.4705171585083</v>
+        <v>-12.79408359527588</v>
       </c>
       <c r="E6" t="n">
-        <v>-6.454219818115234</v>
+        <v>-4.549558639526367</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5349602806968903</v>
+        <v>0.3624176147605125</v>
       </c>
       <c r="G6" t="n">
-        <v>1.069952379880837</v>
+        <v>0.2589661164694446</v>
       </c>
       <c r="H6" t="n">
-        <v>1.569308005711615</v>
+        <v>0.9208506445924814</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14.52309226989746</v>
+        <v>11.05422019958496</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.075542449951172</v>
+        <v>-10.4705171585083</v>
       </c>
       <c r="E7" t="n">
-        <v>-4.196336269378662</v>
+        <v>-6.454219818115234</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.448478241928485</v>
+        <v>-0.5349602806968903</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2915999198160256</v>
+        <v>1.069952379880837</v>
       </c>
       <c r="H7" t="n">
-        <v>2.148881192968673</v>
+        <v>1.569308005711615</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>65.91658020019531</v>
+        <v>14.52309226989746</v>
       </c>
       <c r="D8" t="n">
-        <v>-23.6422119140625</v>
+        <v>-2.075542449951172</v>
       </c>
       <c r="E8" t="n">
-        <v>-20.2271671295166</v>
+        <v>-4.196336269378662</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1628953875864145</v>
+        <v>-1.448478241928485</v>
       </c>
       <c r="G8" t="n">
-        <v>2.143472752150354</v>
+        <v>0.2915999198160256</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7411342482356558</v>
+        <v>2.148881192968673</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-11.09761142730713</v>
+        <v>65.91658020019531</v>
       </c>
       <c r="D9" t="n">
-        <v>-9.708492279052734</v>
+        <v>-23.6422119140625</v>
       </c>
       <c r="E9" t="n">
-        <v>-16.66929626464844</v>
+        <v>-20.2271671295166</v>
       </c>
       <c r="F9" t="n">
-        <v>5.001680181056456</v>
+        <v>0.1628953875864145</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5944304566423666</v>
+        <v>2.143472752150354</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3106197156325129</v>
+        <v>0.7411342482356558</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-24.99989891052246</v>
+        <v>-11.09761142730713</v>
       </c>
       <c r="D10" t="n">
-        <v>-21.75775909423828</v>
+        <v>-9.708492279052734</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6322221755981445</v>
+        <v>-16.66929626464844</v>
       </c>
       <c r="F10" t="n">
-        <v>2.196256959137806</v>
+        <v>5.001680181056456</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2997662000545932</v>
+        <v>0.5944304566423666</v>
       </c>
       <c r="H10" t="n">
-        <v>-5.213745354854745</v>
+        <v>0.3106197156325129</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>37.47088623046875</v>
+        <v>-24.99989891052246</v>
       </c>
       <c r="D11" t="n">
-        <v>-10.36063957214356</v>
+        <v>-21.75775909423828</v>
       </c>
       <c r="E11" t="n">
-        <v>18.01900863647461</v>
+        <v>0.6322221755981445</v>
       </c>
       <c r="F11" t="n">
-        <v>1.67380741063286</v>
+        <v>2.196256959137806</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.317273866729519</v>
+        <v>0.2997662000545932</v>
       </c>
       <c r="H11" t="n">
-        <v>-8.133592685731504</v>
+        <v>-5.213745354854745</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-1.643178939819336</v>
+        <v>37.47088623046875</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.723413467407227</v>
+        <v>-10.36063957214356</v>
       </c>
       <c r="E12" t="n">
-        <v>-5.214177131652832</v>
+        <v>18.01900863647461</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.399641977638681</v>
+        <v>1.67380741063286</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.691358628393238</v>
+        <v>-6.317273866729519</v>
       </c>
       <c r="H12" t="n">
-        <v>2.842905701709222</v>
+        <v>-8.133592685731504</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10.17343330383301</v>
+        <v>-1.643178939819336</v>
       </c>
       <c r="D13" t="n">
-        <v>-45.65782165527344</v>
+        <v>-5.723413467407227</v>
       </c>
       <c r="E13" t="n">
-        <v>20.15432167053223</v>
+        <v>-5.214177131652832</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.124252363413325</v>
+        <v>-3.399641977638681</v>
       </c>
       <c r="G13" t="n">
-        <v>2.333295746009847</v>
+        <v>-6.691358628393238</v>
       </c>
       <c r="H13" t="n">
-        <v>4.042209733434092</v>
+        <v>2.842905701709222</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1.11302375793457</v>
+        <v>10.17343330383301</v>
       </c>
       <c r="D14" t="n">
-        <v>-12.11679267883301</v>
+        <v>-45.65782165527344</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.5434455871582</v>
+        <v>20.15432167053223</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.459144299270755</v>
+        <v>-4.124252363413325</v>
       </c>
       <c r="G14" t="n">
-        <v>10.65372753544007</v>
+        <v>2.333295746009847</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3427767938926811</v>
+        <v>4.042209733434092</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>25.58180236816406</v>
+        <v>-1.11302375793457</v>
       </c>
       <c r="D15" t="n">
-        <v>-19.63376235961914</v>
+        <v>-12.11679267883301</v>
       </c>
       <c r="E15" t="n">
-        <v>-23.0617904663086</v>
+        <v>-19.5434455871582</v>
       </c>
       <c r="F15" t="n">
-        <v>1.466152499703789</v>
+        <v>-1.459144299270755</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4739527562085932</v>
+        <v>10.65372753544007</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.06884271607679748</v>
+        <v>0.3427767938926811</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>34.03413391113281</v>
+        <v>25.58180236816406</v>
       </c>
       <c r="D16" t="n">
-        <v>-47.92161560058594</v>
+        <v>-19.63376235961914</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.704976081848145</v>
+        <v>-23.0617904663086</v>
       </c>
       <c r="F16" t="n">
-        <v>7.103254157955869</v>
+        <v>1.466152499703789</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.76272493550757</v>
+        <v>0.4739527562085932</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.125126261921481</v>
+        <v>-0.06884271607679748</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-7.239111423492432</v>
+        <v>34.03413391113281</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.941543340682984</v>
+        <v>-47.92161560058594</v>
       </c>
       <c r="E17" t="n">
-        <v>-4.735682010650635</v>
+        <v>-2.704976081848145</v>
       </c>
       <c r="F17" t="n">
-        <v>6.002800260271336</v>
+        <v>7.103254157955869</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1307494660385649</v>
+        <v>-3.76272493550757</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.342715479746586</v>
+        <v>-1.125126261921481</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>21.65508270263672</v>
+        <v>-7.239111423492432</v>
       </c>
       <c r="D18" t="n">
-        <v>-27.37262153625488</v>
+        <v>-3.941543340682984</v>
       </c>
       <c r="E18" t="n">
-        <v>32.79093933105469</v>
+        <v>-4.735682010650635</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9153044744699734</v>
+        <v>6.002800260271336</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02712116471860138</v>
+        <v>0.1307494660385649</v>
       </c>
       <c r="H18" t="n">
-        <v>1.211943073432978</v>
+        <v>-1.342715479746586</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-48.36841201782227</v>
+        <v>21.65508270263672</v>
       </c>
       <c r="D19" t="n">
-        <v>-30.63133239746094</v>
+        <v>-27.37262153625488</v>
       </c>
       <c r="E19" t="n">
-        <v>-33.96612167358398</v>
+        <v>32.79093933105469</v>
       </c>
       <c r="F19" t="n">
-        <v>-9.937176976885045</v>
+        <v>-0.9153044744699734</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9889363561357609</v>
+        <v>0.02712116471860138</v>
       </c>
       <c r="H19" t="n">
-        <v>9.063289233616347</v>
+        <v>1.211943073432978</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-3.451883316040039</v>
+        <v>-48.36841201782227</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.505331993103027</v>
+        <v>-30.63133239746094</v>
       </c>
       <c r="E20" t="n">
-        <v>-13.28867816925049</v>
+        <v>-33.96612167358398</v>
       </c>
       <c r="F20" t="n">
-        <v>1.660898893820885</v>
+        <v>-9.937176976885045</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03534786866495354</v>
+        <v>0.9889363561357609</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.336030611470736</v>
+        <v>9.063289233616347</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-3.451883316040039</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-7.505331993103027</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-13.28867816925049</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.660898893820885</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03534786866495354</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-1.336030611470736</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>-6.207223892211914</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D22" t="n">
         <v>-16.8746509552002</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E22" t="n">
         <v>-9.824567794799805</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F22" t="n">
         <v>3.122204536149511</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G22" t="n">
         <v>-5.978971676165282</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H22" t="n">
         <v>-1.097727024254715</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.000881910324097</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-4.219967842102051</v>
+      </c>
+      <c r="E23" t="n">
+        <v>11.5488452911377</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5.814107340924815</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-1.352176813518396</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-1.502328406361931</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>26.53460311889648</v>
+      </c>
+      <c r="D24" t="n">
+        <v>11.7469482421875</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5.673069000244141</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.08294376405329906</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.04769127909872317</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.643018007278366</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>15.22074890136719</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-62.06856155395508</v>
+      </c>
+      <c r="E25" t="n">
+        <v>22.35076904296875</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-4.552947707536836</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.8177924519326552</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.338970492867865</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-22.60456275939941</v>
+      </c>
+      <c r="D26" t="n">
+        <v>16.3265266418457</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-2.586312532424927</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-3.988243347456473</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.882105143631221</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.1545383128799389</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-8.99936580657959</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-18.44652366638184</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-19.57757568359375</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-1.513886836646995</v>
+      </c>
+      <c r="G27" t="n">
+        <v>12.12395986789412</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-6.341941402739815</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>80.43364715576172</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-83.25542449951172</v>
+      </c>
+      <c r="E28" t="n">
+        <v>37.27872467041016</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4.529875355608262</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.5813608329838935</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-4.973177166546146</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-2.663472175598145</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.494519710540772</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-1.472611904144287</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5.40816806745133</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-3.943533415554054</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-4.557831178192283</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>18.3146915435791</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-38.27093124389648</v>
+      </c>
+      <c r="E30" t="n">
+        <v>47.83665084838867</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.5592678154216362</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.892510315951151</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-1.382000362171883</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>20.0896053314209</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-6.290483951568604</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-35.30553817749023</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-7.637950965837174</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-7.75840919158016</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-1.187092877235683</v>
       </c>
     </row>
   </sheetData>
